--- a/bots/crawl_ch/output/clothes_2022-08-15.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-15.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -874,12 +874,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12 3.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4103,12 +4103,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>24.50/1ST</t>
+          <t>12.25/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 50% Aktion 12.25 Schweizer Franken statt 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-15 07:03:39</t>
+          <t>2022-08-15 20:57:31</t>
         </is>
       </c>
     </row>
